--- a/jpcore-r4/feature/swg5-fix_med_admin_inj_rateratio/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg5-fix_med_admin_inj_rateratio/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="542">
   <si>
     <t>Property</t>
   </si>
@@ -1633,8 +1633,8 @@
     <t>MedicationAdministration.dosage.rate[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio
-</t>
+    <t>Ratio
+Quantity</t>
   </si>
   <si>
     <t>Dose quantity per unit of time　単位時間あたりの用量</t>
@@ -1655,6 +1655,13 @@
     <t>RXA-12-Administered Per (Time Unit)</t>
   </si>
   <si>
+    <t>rateRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.rate[x].id</t>
   </si>
   <si>
@@ -1706,6 +1713,28 @@
   </si>
   <si>
     <t>.denominator</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t>JP-Coreでは未使用</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -2034,7 +2063,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN90"/>
+  <dimension ref="A1:AN92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2046,37 +2075,37 @@
     <col min="1" max="1" width="57.0859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.0703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.07421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.77734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.6171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
@@ -11611,16 +11640,14 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB84" s="2"/>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AE84" t="s" s="2">
         <v>503</v>
@@ -11655,9 +11682,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B85" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11678,15 +11707,17 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>88</v>
+        <v>511</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>229</v>
+        <v>505</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -11735,7 +11766,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>231</v>
+        <v>503</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11747,19 +11778,19 @@
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>232</v>
+        <v>508</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>77</v>
+        <v>509</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11767,18 +11798,18 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>77</v>
@@ -11790,17 +11821,15 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11837,31 +11866,31 @@
         <v>77</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AC86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
@@ -11881,13 +11910,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11906,15 +11933,17 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>513</v>
+        <v>131</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>514</v>
+        <v>234</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>77</v>
@@ -11951,16 +11980,16 @@
         <v>77</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE87" t="s" s="2">
         <v>237</v>
@@ -11981,7 +12010,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11995,9 +12024,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B88" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="C88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12006,7 +12037,7 @@
         <v>78</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>77</v>
@@ -12015,16 +12046,16 @@
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12075,25 +12106,25 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>520</v>
+        <v>237</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>521</v>
+        <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12107,7 +12138,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12130,13 +12161,13 @@
         <v>87</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12187,7 +12218,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12205,7 +12236,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12219,7 +12250,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12230,7 +12261,7 @@
         <v>78</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>77</v>
@@ -12239,20 +12270,18 @@
         <v>77</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>77</v>
@@ -12307,7 +12336,7 @@
         <v>78</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>77</v>
@@ -12319,15 +12348,245 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AL90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN90" t="s" s="2">
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>77</v>
       </c>
     </row>
